--- a/Exercicios_02.08/1.4-exercicios-optus/Modelagem/1.4-exercicios-optus-fisico.xlsx
+++ b/Exercicios_02.08/1.4-exercicios-optus/Modelagem/1.4-exercicios-optus-fisico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\2°semestre- SENAI\sprint-1_2-semestre\Exercicios_02.08\1.4-exercicios-optus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\2°semestre- SENAI\sprint-1_2-semestre\Exercicios_02.08\1.4-exercicios-optus\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B45853B-E137-4373-A314-EE2514CEDA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1A686E-BACD-4EEF-BB6C-7980CACC1A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="255" windowWidth="21600" windowHeight="11385" xr2:uid="{49DF451D-D0BC-4AF0-B9B2-CDBB0A957F24}"/>
+    <workbookView xWindow="390" yWindow="735" windowWidth="21600" windowHeight="11040" xr2:uid="{49DF451D-D0BC-4AF0-B9B2-CDBB0A957F24}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>idUsuario</t>
   </si>
@@ -115,6 +115,39 @@
   </si>
   <si>
     <t>amendoim</t>
+  </si>
+  <si>
+    <t>localização</t>
+  </si>
+  <si>
+    <t>SÃO PAULO</t>
+  </si>
+  <si>
+    <t>NATAL</t>
+  </si>
+  <si>
+    <t>TEMPO</t>
+  </si>
+  <si>
+    <t>4min</t>
+  </si>
+  <si>
+    <t>3min</t>
+  </si>
+  <si>
+    <t>5min</t>
+  </si>
+  <si>
+    <t>Ativo</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Estilo</t>
+  </si>
+  <si>
+    <t>Pop</t>
   </si>
 </sst>
 </file>
@@ -264,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -294,13 +327,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -618,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE33E94-2811-4C22-A84A-25CF0BD49910}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,23 +672,28 @@
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="G1" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,8 +718,20 @@
       <c r="J2" s="16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -692,16 +748,28 @@
         <v>2</v>
       </c>
       <c r="H3" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="19">
-        <v>44289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="25">
+        <v>43194</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -719,16 +787,28 @@
         <v>3</v>
       </c>
       <c r="H4" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="19">
-        <v>44290</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="25">
+        <v>43924</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G5" s="17">
         <v>4</v>
       </c>
@@ -738,96 +818,108 @@
       <c r="I5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="25">
         <v>44291</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <v>1</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <v>1</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="21">
         <v>2</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="21">
         <v>2</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>3</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="21">
         <v>3</v>
       </c>
-      <c r="F12" s="22">
-        <v>1</v>
-      </c>
-      <c r="G12" s="22">
+      <c r="F12" s="21">
+        <v>3</v>
+      </c>
+      <c r="G12" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
@@ -835,7 +927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>1</v>
       </c>
@@ -860,5 +952,6 @@
     <hyperlink ref="C4" r:id="rId2" xr:uid="{BB61FE6E-74F0-4F46-B37D-1118157DAC42}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>